--- a/2017_ロボコン進捗表.xlsx
+++ b/2017_ロボコン進捗表.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoki\Documents\robokon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +24,7 @@
     <author>tomoki</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>小島</t>
     <rPh sb="0" eb="2">
@@ -240,12 +235,22 @@
   <si>
     <t>GitHub</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -419,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -471,7 +476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -665,19 +670,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -691,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" ht="15.75">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -826,9 +833,15 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -852,6 +865,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2017_ロボコン進捗表.xlsx
+++ b/2017_ロボコン進捗表.xlsx
@@ -681,7 +681,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/2017_ロボコン進捗表.xlsx
+++ b/2017_ロボコン進捗表.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>小島</t>
     <rPh sb="0" eb="2">
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>完了</t>
+  </si>
+  <si>
+    <t>着手</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,9 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -734,9 +735,15 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>

--- a/2017_ロボコン進捗表.xlsx
+++ b/2017_ロボコン進捗表.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>小島</t>
     <rPh sb="0" eb="2">
@@ -673,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,7 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -774,9 +776,15 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -807,10 +815,18 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -829,9 +845,15 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>

--- a/2017_ロボコン進捗表.xlsx
+++ b/2017_ロボコン進捗表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoki\Documents\robokon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4365"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +29,7 @@
     <author>tomoki</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>小島</t>
     <rPh sb="0" eb="2">
@@ -248,12 +253,20 @@
   </si>
   <si>
     <t>着手</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -427,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -479,7 +492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,21 +686,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -701,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75">
+    <row r="3" spans="2:8">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -804,9 +815,15 @@
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -819,10 +836,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>21</v>
